--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1088.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1088.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.139243881878573</v>
+        <v>1.178748488426208</v>
       </c>
       <c r="B1">
-        <v>2.298138002296283</v>
+        <v>2.41413688659668</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.80573088192751</v>
+        <v>2.335357427597046</v>
       </c>
       <c r="E1">
-        <v>1.193321197328539</v>
+        <v>1.195580840110779</v>
       </c>
     </row>
   </sheetData>
